--- a/2020-10-27-6MC.xlsx
+++ b/2020-10-27-6MC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be534843b9fe5053/桌面/202407/layout论文/data-layout/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E9D74F1E0173202950A2301D484B0DF38EFF66C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD44F773-A6B4-4DC2-9DD6-8C7F828E3D70}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="14790" windowHeight="7605" tabRatio="291"/>
+    <workbookView xWindow="4395" yWindow="2640" windowWidth="16200" windowHeight="9270" tabRatio="291" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="2" r:id="rId1"/>
@@ -67,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,24 +714,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -740,24 +746,32 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -799,7 +813,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,9 +845,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,6 +897,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1040,26 +1090,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.46484375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1111,7 +1161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1131,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1148,7 +1198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1165,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1182,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1199,7 +1249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>7</v>
       </c>
@@ -1210,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>8</v>
       </c>
@@ -1221,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -1232,7 +1282,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1256,26 +1306,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="30.46484375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="22.1328125" customWidth="1"/>
+    <col min="4" max="4" width="21.46484375" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" customWidth="1"/>
+    <col min="7" max="7" width="25.73046875" customWidth="1"/>
+    <col min="8" max="8" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1327,7 +1377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1347,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1364,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1381,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1398,7 +1448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1415,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>7</v>
       </c>
@@ -1426,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
@@ -1437,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>9</v>
       </c>
@@ -1448,7 +1498,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1471,26 +1521,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="30.265625" customWidth="1"/>
+    <col min="2" max="2" width="36.86328125" customWidth="1"/>
+    <col min="3" max="3" width="26.46484375" customWidth="1"/>
+    <col min="4" max="4" width="29.46484375" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
+    <col min="6" max="6" width="21.86328125" customWidth="1"/>
+    <col min="7" max="7" width="23.3984375" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1542,7 +1592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1559,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1576,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1593,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1610,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1627,7 +1677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>7</v>
       </c>
@@ -1638,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
@@ -1649,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>9</v>
       </c>
@@ -1660,7 +1710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1676,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
@@ -1686,26 +1736,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="33.46484375" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.59765625" customWidth="1"/>
+    <col min="5" max="5" width="24.265625" customWidth="1"/>
+    <col min="6" max="6" width="27.265625" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" customWidth="1"/>
+    <col min="8" max="8" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1757,7 +1807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1774,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1791,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1808,7 +1858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1825,7 +1875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1842,7 +1892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>7</v>
       </c>
@@ -1853,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
@@ -1864,7 +1914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>9</v>
       </c>
@@ -1875,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>10</v>
       </c>
@@ -1886,7 +1936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +1944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
@@ -1912,24 +1962,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" customWidth="1"/>
+    <col min="2" max="2" width="34.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="23.73046875" customWidth="1"/>
+    <col min="8" max="8" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1981,7 +2031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1998,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2015,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2032,7 +2082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2049,7 +2099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2066,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>7</v>
       </c>
@@ -2077,7 +2127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>8</v>
       </c>
@@ -2088,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -2099,7 +2149,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -2110,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -2126,7 +2176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
     </row>
   </sheetData>
